--- a/test cases/DienmayXANH-ViewListProducts.xlsx
+++ b/test cases/DienmayXANH-ViewListProducts.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\eclipse-workspace\DienMayXanh\test cases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3119C58A-7050-4697-AA5A-777D2F16E2A5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88CB2CBB-D974-4620-B3C4-ED1792366111}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1181,6 +1181,18 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="21" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1190,6 +1202,18 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="19" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1202,30 +1226,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="21" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="19" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1286,6 +1286,60 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="26" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1295,65 +1349,11 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="26" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -1661,20 +1661,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:5" ht="21" x14ac:dyDescent="0.3">
-      <c r="B1" s="51" t="s">
+      <c r="B1" s="44" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="51"/>
-      <c r="D1" s="51"/>
-      <c r="E1" s="51"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
     </row>
     <row r="2" spans="2:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="55" t="s">
+      <c r="B2" s="51" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="55"/>
-      <c r="D2" s="55"/>
-      <c r="E2" s="55"/>
+      <c r="C2" s="51"/>
+      <c r="D2" s="51"/>
+      <c r="E2" s="51"/>
     </row>
     <row r="3" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="2"/>
@@ -1683,12 +1683,12 @@
       <c r="E3" s="1"/>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B4" s="52" t="s">
+      <c r="B4" s="45" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="53"/>
-      <c r="D4" s="53"/>
-      <c r="E4" s="54"/>
+      <c r="C4" s="46"/>
+      <c r="D4" s="46"/>
+      <c r="E4" s="47"/>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B5" s="10" t="s">
@@ -1743,12 +1743,12 @@
       <c r="E10" s="3"/>
     </row>
     <row r="11" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="44" t="s">
+      <c r="B11" s="48" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="45"/>
-      <c r="D11" s="45"/>
-      <c r="E11" s="46"/>
+      <c r="C11" s="49"/>
+      <c r="D11" s="49"/>
+      <c r="E11" s="50"/>
     </row>
     <row r="12" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B12" s="1"/>
@@ -1757,12 +1757,12 @@
       <c r="E12" s="1"/>
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B13" s="56" t="s">
+      <c r="B13" s="52" t="s">
         <v>10</v>
       </c>
-      <c r="C13" s="57"/>
-      <c r="D13" s="57"/>
-      <c r="E13" s="58"/>
+      <c r="C13" s="53"/>
+      <c r="D13" s="53"/>
+      <c r="E13" s="54"/>
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B14" s="8" t="s">
@@ -1771,54 +1771,54 @@
       <c r="C14" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="D14" s="47" t="s">
+      <c r="D14" s="55" t="s">
         <v>11</v>
       </c>
-      <c r="E14" s="48"/>
+      <c r="E14" s="56"/>
     </row>
     <row r="15" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B15" s="4"/>
       <c r="C15" s="7"/>
-      <c r="D15" s="49"/>
-      <c r="E15" s="50"/>
+      <c r="D15" s="57"/>
+      <c r="E15" s="58"/>
     </row>
     <row r="16" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B16" s="6"/>
       <c r="C16" s="7"/>
-      <c r="D16" s="49"/>
-      <c r="E16" s="50"/>
+      <c r="D16" s="57"/>
+      <c r="E16" s="58"/>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B17" s="6"/>
       <c r="C17" s="7"/>
-      <c r="D17" s="49"/>
-      <c r="E17" s="50"/>
+      <c r="D17" s="57"/>
+      <c r="E17" s="58"/>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B18" s="6"/>
       <c r="C18" s="7"/>
-      <c r="D18" s="49"/>
-      <c r="E18" s="50"/>
+      <c r="D18" s="57"/>
+      <c r="E18" s="58"/>
     </row>
     <row r="19" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B19" s="44"/>
-      <c r="C19" s="45"/>
-      <c r="D19" s="45"/>
-      <c r="E19" s="46"/>
+      <c r="B19" s="48"/>
+      <c r="C19" s="49"/>
+      <c r="D19" s="49"/>
+      <c r="E19" s="50"/>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="B1:E1"/>
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="B11:E11"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="B13:E13"/>
     <mergeCell ref="B19:E19"/>
     <mergeCell ref="D14:E14"/>
     <mergeCell ref="D15:E15"/>
     <mergeCell ref="D16:E16"/>
     <mergeCell ref="D17:E17"/>
     <mergeCell ref="D18:E18"/>
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="B11:E11"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="B13:E13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2075,7 +2075,7 @@
   <dimension ref="A1:I16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4:C5"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2091,17 +2091,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="29.4" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A1" s="92" t="s">
+      <c r="A1" s="79" t="s">
         <v>52</v>
       </c>
-      <c r="B1" s="92"/>
-      <c r="C1" s="92"/>
-      <c r="D1" s="92"/>
-      <c r="E1" s="92"/>
-      <c r="F1" s="92"/>
-      <c r="G1" s="92"/>
-      <c r="H1" s="92"/>
-      <c r="I1" s="92"/>
+      <c r="B1" s="79"/>
+      <c r="C1" s="79"/>
+      <c r="D1" s="79"/>
+      <c r="E1" s="79"/>
+      <c r="F1" s="79"/>
+      <c r="G1" s="79"/>
+      <c r="H1" s="79"/>
+      <c r="I1" s="79"/>
     </row>
     <row r="2" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="22" t="s">
@@ -2133,32 +2133,32 @@
       </c>
     </row>
     <row r="3" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="93" t="s">
+      <c r="A3" s="80" t="s">
         <v>38</v>
       </c>
-      <c r="B3" s="93"/>
-      <c r="C3" s="93"/>
-      <c r="D3" s="93"/>
-      <c r="E3" s="93"/>
-      <c r="F3" s="93"/>
-      <c r="G3" s="93"/>
-      <c r="H3" s="93"/>
-      <c r="I3" s="93"/>
+      <c r="B3" s="80"/>
+      <c r="C3" s="80"/>
+      <c r="D3" s="80"/>
+      <c r="E3" s="80"/>
+      <c r="F3" s="80"/>
+      <c r="G3" s="80"/>
+      <c r="H3" s="80"/>
+      <c r="I3" s="80"/>
     </row>
     <row r="4" spans="1:9" s="1" customFormat="1" ht="28.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="86">
+      <c r="A4" s="100">
         <v>1</v>
       </c>
-      <c r="B4" s="79" t="s">
+      <c r="B4" s="97" t="s">
         <v>41</v>
       </c>
-      <c r="C4" s="87" t="s">
+      <c r="C4" s="88" t="s">
         <v>47</v>
       </c>
-      <c r="D4" s="88" t="s">
+      <c r="D4" s="95" t="s">
         <v>53</v>
       </c>
-      <c r="E4" s="85"/>
+      <c r="E4" s="87"/>
       <c r="F4" s="31">
         <v>1</v>
       </c>
@@ -2171,11 +2171,11 @@
       <c r="I4" s="37"/>
     </row>
     <row r="5" spans="1:9" s="1" customFormat="1" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="86"/>
-      <c r="B5" s="80"/>
-      <c r="C5" s="87"/>
-      <c r="D5" s="88"/>
-      <c r="E5" s="85"/>
+      <c r="A5" s="100"/>
+      <c r="B5" s="98"/>
+      <c r="C5" s="88"/>
+      <c r="D5" s="95"/>
+      <c r="E5" s="87"/>
       <c r="F5" s="28">
         <v>2</v>
       </c>
@@ -2190,17 +2190,17 @@
       </c>
     </row>
     <row r="6" spans="1:9" s="1" customFormat="1" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="82">
+      <c r="A6" s="81">
         <v>2</v>
       </c>
-      <c r="B6" s="80"/>
-      <c r="C6" s="87" t="s">
+      <c r="B6" s="98"/>
+      <c r="C6" s="88" t="s">
         <v>48</v>
       </c>
-      <c r="D6" s="88" t="s">
+      <c r="D6" s="95" t="s">
         <v>54</v>
       </c>
-      <c r="E6" s="85"/>
+      <c r="E6" s="87"/>
       <c r="F6" s="31">
         <v>1</v>
       </c>
@@ -2213,11 +2213,11 @@
       <c r="I6" s="37"/>
     </row>
     <row r="7" spans="1:9" s="1" customFormat="1" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="83"/>
-      <c r="B7" s="80"/>
-      <c r="C7" s="87"/>
-      <c r="D7" s="88"/>
-      <c r="E7" s="85"/>
+      <c r="A7" s="82"/>
+      <c r="B7" s="98"/>
+      <c r="C7" s="88"/>
+      <c r="D7" s="95"/>
+      <c r="E7" s="87"/>
       <c r="F7" s="28">
         <v>2</v>
       </c>
@@ -2230,11 +2230,11 @@
       <c r="I7" s="34"/>
     </row>
     <row r="8" spans="1:9" s="1" customFormat="1" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="84"/>
-      <c r="B8" s="81"/>
+      <c r="A8" s="83"/>
+      <c r="B8" s="99"/>
       <c r="C8" s="89"/>
-      <c r="D8" s="90"/>
-      <c r="E8" s="91"/>
+      <c r="D8" s="96"/>
+      <c r="E8" s="101"/>
       <c r="F8" s="38">
         <v>3</v>
       </c>
@@ -2249,19 +2249,19 @@
       </c>
     </row>
     <row r="9" spans="1:9" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="100">
+      <c r="A9" s="93">
         <v>3</v>
       </c>
-      <c r="B9" s="97" t="s">
+      <c r="B9" s="90" t="s">
         <v>42</v>
       </c>
-      <c r="C9" s="87" t="s">
+      <c r="C9" s="88" t="s">
         <v>49</v>
       </c>
-      <c r="D9" s="88" t="s">
+      <c r="D9" s="95" t="s">
         <v>64</v>
       </c>
-      <c r="E9" s="85"/>
+      <c r="E9" s="87"/>
       <c r="F9" s="31">
         <v>1</v>
       </c>
@@ -2274,11 +2274,11 @@
       <c r="I9" s="37"/>
     </row>
     <row r="10" spans="1:9" s="1" customFormat="1" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="101"/>
-      <c r="B10" s="98"/>
+      <c r="A10" s="94"/>
+      <c r="B10" s="91"/>
       <c r="C10" s="89"/>
-      <c r="D10" s="90"/>
-      <c r="E10" s="85"/>
+      <c r="D10" s="96"/>
+      <c r="E10" s="87"/>
       <c r="F10" s="28">
         <v>2</v>
       </c>
@@ -2291,11 +2291,11 @@
       <c r="I10" s="34"/>
     </row>
     <row r="11" spans="1:9" s="1" customFormat="1" ht="42" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="100"/>
-      <c r="B11" s="98"/>
-      <c r="C11" s="87"/>
-      <c r="D11" s="88"/>
-      <c r="E11" s="85"/>
+      <c r="A11" s="93"/>
+      <c r="B11" s="91"/>
+      <c r="C11" s="88"/>
+      <c r="D11" s="95"/>
+      <c r="E11" s="87"/>
       <c r="F11" s="28">
         <v>3</v>
       </c>
@@ -2310,17 +2310,17 @@
       </c>
     </row>
     <row r="12" spans="1:9" s="1" customFormat="1" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="82">
+      <c r="A12" s="81">
         <v>4</v>
       </c>
-      <c r="B12" s="98"/>
-      <c r="C12" s="87" t="s">
+      <c r="B12" s="91"/>
+      <c r="C12" s="88" t="s">
         <v>50</v>
       </c>
-      <c r="D12" s="94" t="s">
+      <c r="D12" s="84" t="s">
         <v>65</v>
       </c>
-      <c r="E12" s="85"/>
+      <c r="E12" s="87"/>
       <c r="F12" s="31">
         <v>1</v>
       </c>
@@ -2333,11 +2333,11 @@
       <c r="I12" s="37"/>
     </row>
     <row r="13" spans="1:9" s="1" customFormat="1" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="83"/>
-      <c r="B13" s="98"/>
+      <c r="A13" s="82"/>
+      <c r="B13" s="91"/>
       <c r="C13" s="89"/>
-      <c r="D13" s="95"/>
-      <c r="E13" s="85"/>
+      <c r="D13" s="85"/>
+      <c r="E13" s="87"/>
       <c r="F13" s="28">
         <v>2</v>
       </c>
@@ -2350,11 +2350,11 @@
       <c r="I13" s="34"/>
     </row>
     <row r="14" spans="1:9" s="1" customFormat="1" ht="42" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="84"/>
-      <c r="B14" s="99"/>
-      <c r="C14" s="87"/>
-      <c r="D14" s="96"/>
-      <c r="E14" s="85"/>
+      <c r="A14" s="83"/>
+      <c r="B14" s="92"/>
+      <c r="C14" s="88"/>
+      <c r="D14" s="86"/>
+      <c r="E14" s="87"/>
       <c r="F14" s="28">
         <v>3</v>
       </c>
@@ -2369,19 +2369,19 @@
       </c>
     </row>
     <row r="15" spans="1:9" s="1" customFormat="1" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="82">
+      <c r="A15" s="81">
         <v>5</v>
       </c>
-      <c r="B15" s="97" t="s">
+      <c r="B15" s="90" t="s">
         <v>43</v>
       </c>
-      <c r="C15" s="87" t="s">
+      <c r="C15" s="88" t="s">
         <v>51</v>
       </c>
-      <c r="D15" s="94" t="s">
+      <c r="D15" s="84" t="s">
         <v>73</v>
       </c>
-      <c r="E15" s="85"/>
+      <c r="E15" s="87"/>
       <c r="F15" s="31">
         <v>1</v>
       </c>
@@ -2394,11 +2394,11 @@
       <c r="I15" s="37"/>
     </row>
     <row r="16" spans="1:9" s="1" customFormat="1" ht="42" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="84"/>
-      <c r="B16" s="99"/>
-      <c r="C16" s="87"/>
-      <c r="D16" s="96"/>
-      <c r="E16" s="85"/>
+      <c r="A16" s="83"/>
+      <c r="B16" s="92"/>
+      <c r="C16" s="88"/>
+      <c r="D16" s="86"/>
+      <c r="E16" s="87"/>
       <c r="F16" s="42">
         <v>2</v>
       </c>
@@ -2414,6 +2414,15 @@
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="B4:B8"/>
+    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="C6:C8"/>
+    <mergeCell ref="D6:D8"/>
+    <mergeCell ref="E6:E8"/>
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="A3:I3"/>
     <mergeCell ref="A12:A14"/>
@@ -2430,15 +2439,6 @@
     <mergeCell ref="C9:C11"/>
     <mergeCell ref="D9:D11"/>
     <mergeCell ref="E9:E11"/>
-    <mergeCell ref="B4:B8"/>
-    <mergeCell ref="A6:A8"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="C6:C8"/>
-    <mergeCell ref="D6:D8"/>
-    <mergeCell ref="E6:E8"/>
   </mergeCells>
   <phoneticPr fontId="24" type="noConversion"/>
   <hyperlinks>
@@ -2454,21 +2454,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101007916DAE6CBAB0E478E10A9FCA3CC0E19" ma:contentTypeVersion="6" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="6f7c1022657b138b79f35a4326fa0dc9">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="73b10483-4eab-47d9-97c6-997f49bd58aa" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="c089ff6982c627c0778789fcc62b4c69" ns2:_="">
     <xsd:import namespace="73b10483-4eab-47d9-97c6-997f49bd58aa"/>
@@ -2626,24 +2611,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06066F44-28EF-4989-9E2D-F3C30A4D0D5D}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6459A90D-25B3-4765-A81F-CB2B8DBDBF37}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B4BCDA75-5053-4A00-AC56-8B4371FB5F69}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2659,4 +2642,21 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6459A90D-25B3-4765-A81F-CB2B8DBDBF37}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06066F44-28EF-4989-9E2D-F3C30A4D0D5D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/test cases/DienmayXANH-ViewListProducts.xlsx
+++ b/test cases/DienmayXANH-ViewListProducts.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\eclipse-workspace\DienMayXanh\test cases\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\eclipse-workspace\DienmayXANH\DienMayXanh\test cases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88CB2CBB-D974-4620-B3C4-ED1792366111}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD48ACA0-130B-47B0-B9AF-8C750E471198}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1654,10 +1654,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="13.6640625" customWidth="1"/>
-    <col min="3" max="3" width="14.44140625" customWidth="1"/>
-    <col min="4" max="4" width="30.33203125" customWidth="1"/>
-    <col min="5" max="5" width="53.5546875" customWidth="1"/>
+    <col min="2" max="2" width="13.6640625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="14.44140625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="30.33203125" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="53.5546875" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:5" ht="21" x14ac:dyDescent="0.3">
@@ -1848,12 +1848,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" customWidth="1"/>
-    <col min="2" max="2" width="16.109375" customWidth="1"/>
-    <col min="3" max="3" width="28.44140625" customWidth="1"/>
-    <col min="4" max="4" width="38.6640625" customWidth="1"/>
-    <col min="5" max="5" width="13.109375" customWidth="1"/>
-    <col min="6" max="6" width="13.88671875" customWidth="1"/>
+    <col min="1" max="1" width="8.88671875" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="16.109375" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="28.44140625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="38.6640625" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="13.109375" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="13.88671875" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -2074,20 +2074,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:I16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="22.88671875" customWidth="1"/>
-    <col min="3" max="3" width="21.33203125" customWidth="1"/>
-    <col min="4" max="4" width="28.21875" customWidth="1"/>
-    <col min="5" max="5" width="16.44140625" customWidth="1"/>
-    <col min="6" max="6" width="8.33203125" customWidth="1"/>
-    <col min="7" max="7" width="31.33203125" style="27" customWidth="1"/>
-    <col min="8" max="8" width="19.6640625" customWidth="1"/>
-    <col min="9" max="9" width="36.109375" style="27" customWidth="1"/>
+    <col min="2" max="2" width="22.88671875" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="21.33203125" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="28.21875" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="16.44140625" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="8.33203125" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="31.33203125" style="27" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="19.6640625" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="36.109375" style="27" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="29.4" thickBot="1" x14ac:dyDescent="0.6">
